--- a/Excel_luban/Datas/CheckInConfig.xlsx
+++ b/Excel_luban/Datas/CheckInConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="CheckInConfig" sheetId="6" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel_luban/Datas/CheckInConfig.xlsx
+++ b/Excel_luban/Datas/CheckInConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="CheckInConfig" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -617,7 +630,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,8 +779,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,10 +800,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -796,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -847,7 +869,27 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1147,7 +1189,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1187,28 +1229,28 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:30">
       <c r="A2" s="5" t="s">
@@ -1221,28 +1263,28 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:30">
       <c r="A3" s="7" t="s">
@@ -1269,28 +1311,28 @@
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:30">
       <c r="A4" s="7" t="s">
@@ -1315,28 +1357,28 @@
       <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:30">
       <c r="A5" s="5" t="s">
@@ -1363,28 +1405,28 @@
       <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="2:8">
       <c r="B6" s="3">
@@ -1397,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="8">
-        <v>2201</v>
-      </c>
-      <c r="F6" s="8">
+        <v>1103</v>
+      </c>
+      <c r="F6" s="9">
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
@@ -1420,13 +1462,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="8">
-        <v>2403</v>
-      </c>
-      <c r="F7" s="8">
+        <v>1104</v>
+      </c>
+      <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
@@ -1442,14 +1484,14 @@
       <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="9">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="8">
+        <v>1105</v>
+      </c>
+      <c r="F8" s="10">
         <v>20</v>
       </c>
       <c r="G8" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
@@ -1465,14 +1507,14 @@
       <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
-        <v>2412</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="8">
+        <v>1106</v>
+      </c>
+      <c r="F9" s="10">
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
@@ -1488,14 +1530,14 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="9">
-        <v>2022</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="8">
+        <v>1107</v>
+      </c>
+      <c r="F10" s="10">
         <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
@@ -1511,14 +1553,14 @@
       <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="9">
-        <v>2012</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="8">
+        <v>1108</v>
+      </c>
+      <c r="F11" s="10">
         <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
@@ -1534,14 +1576,14 @@
       <c r="D12" s="3">
         <v>7</v>
       </c>
-      <c r="E12" s="9">
-        <v>2404</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="8">
+        <v>1109</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -1557,14 +1599,14 @@
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="9">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="8">
+        <v>1110</v>
+      </c>
+      <c r="F13" s="10">
         <v>20</v>
       </c>
       <c r="G13" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
@@ -1580,14 +1622,14 @@
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="9">
-        <v>2413</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="8">
+        <v>1111</v>
+      </c>
+      <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
@@ -1603,14 +1645,14 @@
       <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="9">
-        <v>2404</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E15" s="8">
+        <v>1112</v>
+      </c>
+      <c r="F15" s="10">
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H15" s="3">
         <v>10</v>
@@ -1626,14 +1668,14 @@
       <c r="D16" s="3">
         <v>11</v>
       </c>
-      <c r="E16" s="9">
-        <v>2201</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="11">
+        <v>1201</v>
+      </c>
+      <c r="F16" s="10">
         <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H16" s="3">
         <v>10</v>
@@ -1649,14 +1691,14 @@
       <c r="D17" s="3">
         <v>12</v>
       </c>
-      <c r="E17" s="9">
-        <v>2421</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="11">
+        <v>1202</v>
+      </c>
+      <c r="F17" s="10">
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
@@ -1672,14 +1714,14 @@
       <c r="D18" s="3">
         <v>13</v>
       </c>
-      <c r="E18" s="9">
-        <v>13</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="11">
+        <v>1301</v>
+      </c>
+      <c r="F18" s="10">
         <v>20</v>
       </c>
       <c r="G18" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H18" s="3">
         <v>10</v>
@@ -1695,14 +1737,14 @@
       <c r="D19" s="3">
         <v>14</v>
       </c>
-      <c r="E19" s="9">
-        <v>2412</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="11">
+        <v>1302</v>
+      </c>
+      <c r="F19" s="10">
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H19" s="3">
         <v>10</v>
@@ -1718,14 +1760,14 @@
       <c r="D20" s="3">
         <v>15</v>
       </c>
-      <c r="E20" s="9">
-        <v>2202</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="11">
+        <v>1303</v>
+      </c>
+      <c r="F20" s="10">
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H20" s="3">
         <v>10</v>
@@ -1741,14 +1783,14 @@
       <c r="D21" s="3">
         <v>16</v>
       </c>
-      <c r="E21" s="9">
-        <v>2022</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="11">
+        <v>1304</v>
+      </c>
+      <c r="F21" s="10">
         <v>2</v>
       </c>
       <c r="G21" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H21" s="3">
         <v>10</v>
@@ -1764,14 +1806,14 @@
       <c r="D22" s="3">
         <v>17</v>
       </c>
-      <c r="E22" s="9">
-        <v>2422</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="11">
+        <v>1305</v>
+      </c>
+      <c r="F22" s="10">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H22" s="3">
         <v>10</v>
@@ -1787,14 +1829,14 @@
       <c r="D23" s="3">
         <v>18</v>
       </c>
-      <c r="E23" s="9">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="11">
+        <v>1306</v>
+      </c>
+      <c r="F23" s="10">
         <v>20</v>
       </c>
       <c r="G23" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H23" s="3">
         <v>10</v>
@@ -1810,14 +1852,14 @@
       <c r="D24" s="3">
         <v>19</v>
       </c>
-      <c r="E24" s="9">
-        <v>2413</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="11">
+        <v>1307</v>
+      </c>
+      <c r="F24" s="10">
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H24" s="3">
         <v>10</v>
@@ -1833,14 +1875,14 @@
       <c r="D25" s="3">
         <v>20</v>
       </c>
-      <c r="E25" s="9">
-        <v>2002</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25" s="11">
+        <v>1308</v>
+      </c>
+      <c r="F25" s="10">
         <v>2</v>
       </c>
       <c r="G25" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H25" s="3">
         <v>10</v>
@@ -1856,14 +1898,14 @@
       <c r="D26" s="3">
         <v>21</v>
       </c>
-      <c r="E26" s="9">
-        <v>2435</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="11">
+        <v>1401</v>
+      </c>
+      <c r="F26" s="10">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H26" s="3">
         <v>10</v>
@@ -1879,14 +1921,14 @@
       <c r="D27" s="3">
         <v>22</v>
       </c>
-      <c r="E27" s="9">
-        <v>2404</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E27" s="11">
+        <v>1402</v>
+      </c>
+      <c r="F27" s="10">
         <v>2</v>
       </c>
       <c r="G27" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H27" s="3">
         <v>10</v>
@@ -1902,14 +1944,14 @@
       <c r="D28" s="3">
         <v>23</v>
       </c>
-      <c r="E28" s="9">
-        <v>13</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="11">
+        <v>1403</v>
+      </c>
+      <c r="F28" s="10">
         <v>50</v>
       </c>
       <c r="G28" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H28" s="3">
         <v>10</v>
@@ -1925,14 +1967,14 @@
       <c r="D29" s="3">
         <v>24</v>
       </c>
-      <c r="E29" s="9">
-        <v>2413</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="11">
+        <v>1404</v>
+      </c>
+      <c r="F29" s="10">
         <v>2</v>
       </c>
       <c r="G29" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H29" s="3">
         <v>10</v>
@@ -1948,14 +1990,14 @@
       <c r="D30" s="3">
         <v>25</v>
       </c>
-      <c r="E30" s="9">
-        <v>2435</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="E30" s="11">
+        <v>1405</v>
+      </c>
+      <c r="F30" s="10">
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H30" s="3">
         <v>10</v>
@@ -1971,14 +2013,14 @@
       <c r="D31" s="3">
         <v>26</v>
       </c>
-      <c r="E31" s="9">
-        <v>2022</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="E31" s="11">
+        <v>1406</v>
+      </c>
+      <c r="F31" s="10">
         <v>1</v>
       </c>
       <c r="G31" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H31" s="3">
         <v>10</v>
@@ -1994,14 +2036,14 @@
       <c r="D32" s="3">
         <v>27</v>
       </c>
-      <c r="E32" s="9">
-        <v>2413</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="11">
+        <v>1407</v>
+      </c>
+      <c r="F32" s="10">
         <v>2</v>
       </c>
       <c r="G32" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H32" s="3">
         <v>10</v>
@@ -2017,14 +2059,14 @@
       <c r="D33" s="3">
         <v>28</v>
       </c>
-      <c r="E33" s="9">
-        <v>13</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="E33" s="11">
+        <v>1408</v>
+      </c>
+      <c r="F33" s="10">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H33" s="3">
         <v>10</v>
@@ -2040,14 +2082,14 @@
       <c r="D34" s="3">
         <v>29</v>
       </c>
-      <c r="E34" s="9">
-        <v>2404</v>
-      </c>
-      <c r="F34" s="9">
+      <c r="E34" s="11">
+        <v>1409</v>
+      </c>
+      <c r="F34" s="10">
         <v>2</v>
       </c>
       <c r="G34" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H34" s="3">
         <v>10</v>
@@ -2063,44 +2105,54 @@
       <c r="D35" s="3">
         <v>30</v>
       </c>
-      <c r="E35" s="9">
-        <v>2022</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="10">
+        <v>2101</v>
+      </c>
+      <c r="F35" s="10">
         <v>1</v>
       </c>
       <c r="G35" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="H35" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="5:6">
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="5:6">
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="5:6">
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="5:6">
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="5:6">
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="5:6">
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E6:E25">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E34">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
